--- a/TrainProject/Excel Files/TrackLayout.xlsx
+++ b/TrainProject/Excel Files/TrackLayout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="86">
   <si>
     <t>Block Number</t>
   </si>
@@ -701,8 +701,8 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
     <col min="8" max="10" width="8.85546875" style="1"/>
     <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
@@ -3524,11 +3524,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD154"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8394,6 +8394,2538 @@
         <v>83</v>
       </c>
     </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1</v>
+      </c>
+      <c r="D154" s="3">
+        <v>50</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F154" s="3">
+        <v>40</v>
+      </c>
+      <c r="I154" s="8">
+        <f>E154*D154/100</f>
+        <v>0.25</v>
+      </c>
+      <c r="J154" s="8">
+        <f>I154</f>
+        <v>0.25</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="str">
+        <f>A154</f>
+        <v>Red</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3">
+        <v>50</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>40</v>
+      </c>
+      <c r="I155" s="8">
+        <f t="shared" ref="I155:I218" si="13">E155*D155/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="J155" s="8">
+        <f>I155+J154</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="str">
+        <f t="shared" ref="A156:A219" si="14">A155</f>
+        <v>Red</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="3">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3">
+        <v>50</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F156" s="3">
+        <v>40</v>
+      </c>
+      <c r="I156" s="8">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="J156" s="8">
+        <f t="shared" ref="J156:J219" si="15">I156+J155</f>
+        <v>1.5</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="5">
+        <v>4</v>
+      </c>
+      <c r="D157" s="3">
+        <v>50</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
+        <v>40</v>
+      </c>
+      <c r="I157" s="8">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J157" s="8">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3">
+        <v>50</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F158" s="3">
+        <v>40</v>
+      </c>
+      <c r="I158" s="8">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="J158" s="8">
+        <f t="shared" si="15"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>6</v>
+      </c>
+      <c r="D159" s="3">
+        <v>50</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <v>40</v>
+      </c>
+      <c r="I159" s="8">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="J159" s="8">
+        <f t="shared" si="15"/>
+        <v>3.75</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="5">
+        <v>7</v>
+      </c>
+      <c r="D160" s="3">
+        <v>75</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F160" s="3">
+        <v>40</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I160" s="8">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="J160" s="8">
+        <f t="shared" si="15"/>
+        <v>4.125</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3">
+        <v>8</v>
+      </c>
+      <c r="D161" s="3">
+        <v>75</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>40</v>
+      </c>
+      <c r="I161" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="8">
+        <f t="shared" si="15"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="3">
+        <v>9</v>
+      </c>
+      <c r="D162" s="3">
+        <v>75</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>40</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I162" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="8">
+        <f t="shared" si="15"/>
+        <v>4.125</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="5">
+        <v>10</v>
+      </c>
+      <c r="D163" s="3">
+        <v>75</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>40</v>
+      </c>
+      <c r="I163" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="8">
+        <f t="shared" si="15"/>
+        <v>4.125</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="3">
+        <v>11</v>
+      </c>
+      <c r="D164" s="3">
+        <v>75</v>
+      </c>
+      <c r="E164" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F164" s="3">
+        <v>40</v>
+      </c>
+      <c r="I164" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J164" s="8">
+        <f t="shared" si="15"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="5">
+        <v>12</v>
+      </c>
+      <c r="D165" s="3">
+        <v>75</v>
+      </c>
+      <c r="E165" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F165" s="3">
+        <v>40</v>
+      </c>
+      <c r="I165" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J165" s="8">
+        <f t="shared" si="15"/>
+        <v>3.375</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="3">
+        <v>13</v>
+      </c>
+      <c r="D166" s="3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="E166" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>40</v>
+      </c>
+      <c r="I166" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.68400000000000005</v>
+      </c>
+      <c r="J166" s="8">
+        <f t="shared" si="15"/>
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="3">
+        <v>14</v>
+      </c>
+      <c r="D167" s="3">
+        <v>60</v>
+      </c>
+      <c r="E167" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>40</v>
+      </c>
+      <c r="I167" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.6</v>
+      </c>
+      <c r="J167" s="8">
+        <f t="shared" si="15"/>
+        <v>2.0909999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="5">
+        <v>15</v>
+      </c>
+      <c r="D168" s="3">
+        <v>60</v>
+      </c>
+      <c r="E168" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>40</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.6</v>
+      </c>
+      <c r="J168" s="8">
+        <f t="shared" si="15"/>
+        <v>1.4909999999999997</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="3">
+        <v>16</v>
+      </c>
+      <c r="D169" s="3">
+        <v>50</v>
+      </c>
+      <c r="E169" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F169" s="3">
+        <v>40</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J169" s="8">
+        <f t="shared" si="15"/>
+        <v>1.2409999999999997</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="5">
+        <v>17</v>
+      </c>
+      <c r="D170" s="3">
+        <v>200</v>
+      </c>
+      <c r="E170" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F170" s="3">
+        <v>55</v>
+      </c>
+      <c r="I170" s="8">
+        <f>E170*D170/100</f>
+        <v>-1</v>
+      </c>
+      <c r="J170" s="8">
+        <f t="shared" si="15"/>
+        <v>0.24099999999999966</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="3">
+        <v>18</v>
+      </c>
+      <c r="D171" s="3">
+        <v>400</v>
+      </c>
+      <c r="E171" s="3">
+        <f>-100*0.241/400</f>
+        <v>-6.0249999999999998E-2</v>
+      </c>
+      <c r="F171" s="3">
+        <v>70</v>
+      </c>
+      <c r="I171" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="J171" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="3">
+        <v>19</v>
+      </c>
+      <c r="D172" s="3">
+        <v>400</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>70</v>
+      </c>
+      <c r="I172" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="5">
+        <v>20</v>
+      </c>
+      <c r="D173" s="3">
+        <v>200</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>70</v>
+      </c>
+      <c r="I173" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="3">
+        <v>21</v>
+      </c>
+      <c r="D174" s="3">
+        <v>100</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>55</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I174" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="5">
+        <v>22</v>
+      </c>
+      <c r="D175" s="3">
+        <v>100</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>55</v>
+      </c>
+      <c r="I175" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="3">
+        <v>23</v>
+      </c>
+      <c r="D176" s="3">
+        <v>100</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>55</v>
+      </c>
+      <c r="I176" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="3">
+        <v>24</v>
+      </c>
+      <c r="D177" s="3">
+        <v>50</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>70</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I177" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="5">
+        <v>25</v>
+      </c>
+      <c r="D178" s="3">
+        <v>50</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>70</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I178" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="3">
+        <v>26</v>
+      </c>
+      <c r="D179" s="3">
+        <v>50</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>70</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I179" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="5">
+        <v>27</v>
+      </c>
+      <c r="D180" s="3">
+        <v>50</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>70</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="3">
+        <v>28</v>
+      </c>
+      <c r="D181" s="3">
+        <v>50</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>70</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I181" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="3">
+        <v>29</v>
+      </c>
+      <c r="D182" s="3">
+        <v>60</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>70</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I182" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="5">
+        <v>30</v>
+      </c>
+      <c r="D183" s="3">
+        <v>60</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>70</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="3">
+        <v>31</v>
+      </c>
+      <c r="D184" s="3">
+        <v>50</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>70</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I184" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="5">
+        <v>32</v>
+      </c>
+      <c r="D185" s="3">
+        <v>50</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>70</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I185" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="3">
+        <v>33</v>
+      </c>
+      <c r="D186" s="3">
+        <v>50</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>70</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I186" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="3">
+        <v>34</v>
+      </c>
+      <c r="D187" s="3">
+        <v>50</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>70</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I187" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="5">
+        <v>35</v>
+      </c>
+      <c r="D188" s="3">
+        <v>50</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>70</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I188" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="3">
+        <v>36</v>
+      </c>
+      <c r="D189" s="3">
+        <v>50</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>70</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I189" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="str">
+        <f>A186</f>
+        <v>Red</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="3">
+        <v>37</v>
+      </c>
+      <c r="D190" s="3">
+        <v>50</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>70</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I190" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="5">
+        <v>38</v>
+      </c>
+      <c r="D191" s="3">
+        <v>50</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>70</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="3">
+        <v>39</v>
+      </c>
+      <c r="D192" s="3">
+        <v>50</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>70</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I192" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="3">
+        <v>40</v>
+      </c>
+      <c r="D193" s="3">
+        <v>60</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>70</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I193" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="5">
+        <v>41</v>
+      </c>
+      <c r="D194" s="3">
+        <v>60</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>70</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I194" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J194" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="3">
+        <v>42</v>
+      </c>
+      <c r="D195" s="3">
+        <v>50</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>70</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I195" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="3">
+        <v>43</v>
+      </c>
+      <c r="D196" s="3">
+        <v>50</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>70</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I196" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J196" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="5">
+        <v>44</v>
+      </c>
+      <c r="D197" s="3">
+        <v>50</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>70</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I197" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J197" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="3">
+        <v>45</v>
+      </c>
+      <c r="D198" s="3">
+        <v>50</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>70</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I198" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J198" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="3">
+        <v>46</v>
+      </c>
+      <c r="D199" s="3">
+        <v>75</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>70</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I199" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="5">
+        <v>47</v>
+      </c>
+      <c r="D200" s="3">
+        <v>75</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>70</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I200" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J200" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="3">
+        <v>48</v>
+      </c>
+      <c r="D201" s="3">
+        <v>75</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>70</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I201" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J201" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="3">
+        <v>49</v>
+      </c>
+      <c r="D202" s="3">
+        <v>50</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>60</v>
+      </c>
+      <c r="I202" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="5">
+        <v>50</v>
+      </c>
+      <c r="D203" s="3">
+        <v>50</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>60</v>
+      </c>
+      <c r="I203" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="3">
+        <v>51</v>
+      </c>
+      <c r="D204" s="3">
+        <v>50</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>55</v>
+      </c>
+      <c r="I204" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="3">
+        <v>52</v>
+      </c>
+      <c r="D205" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>55</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="5">
+        <v>53</v>
+      </c>
+      <c r="D206" s="3">
+        <v>50</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>55</v>
+      </c>
+      <c r="I206" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J206" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="3">
+        <v>54</v>
+      </c>
+      <c r="D207" s="3">
+        <v>50</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>55</v>
+      </c>
+      <c r="I207" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J207" s="8">
+        <f t="shared" si="15"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="3">
+        <v>55</v>
+      </c>
+      <c r="D208" s="3">
+        <v>75</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F208" s="3">
+        <v>55</v>
+      </c>
+      <c r="I208" s="8">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="J208" s="8">
+        <f t="shared" si="15"/>
+        <v>0.37499999999999967</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="5">
+        <v>56</v>
+      </c>
+      <c r="D209" s="3">
+        <v>75</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F209" s="3">
+        <v>55</v>
+      </c>
+      <c r="I209" s="8">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="J209" s="8">
+        <f t="shared" si="15"/>
+        <v>0.74999999999999967</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="3">
+        <v>57</v>
+      </c>
+      <c r="D210" s="3">
+        <v>75</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F210" s="3">
+        <v>55</v>
+      </c>
+      <c r="I210" s="8">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="J210" s="8">
+        <f t="shared" si="15"/>
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" s="3">
+        <v>58</v>
+      </c>
+      <c r="D211" s="3">
+        <v>75</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1</v>
+      </c>
+      <c r="F211" s="3">
+        <v>55</v>
+      </c>
+      <c r="I211" s="8">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="J211" s="8">
+        <f t="shared" si="15"/>
+        <v>1.8749999999999996</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" s="5">
+        <v>59</v>
+      </c>
+      <c r="D212" s="3">
+        <v>75</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F212" s="3">
+        <v>55</v>
+      </c>
+      <c r="I212" s="8">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="J212" s="8">
+        <f t="shared" si="15"/>
+        <v>2.2499999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="3">
+        <v>60</v>
+      </c>
+      <c r="D213" s="3">
+        <v>75</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>55</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I213" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J213" s="8">
+        <f t="shared" si="15"/>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="3">
+        <v>61</v>
+      </c>
+      <c r="D214" s="3">
+        <v>75</v>
+      </c>
+      <c r="E214" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F214" s="3">
+        <v>55</v>
+      </c>
+      <c r="I214" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J214" s="8">
+        <f t="shared" si="15"/>
+        <v>1.8749999999999996</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" s="5">
+        <v>62</v>
+      </c>
+      <c r="D215" s="3">
+        <v>75</v>
+      </c>
+      <c r="E215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F215" s="3">
+        <v>55</v>
+      </c>
+      <c r="I215" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="J215" s="8">
+        <f t="shared" si="15"/>
+        <v>1.1249999999999996</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="3">
+        <v>63</v>
+      </c>
+      <c r="D216" s="3">
+        <v>75</v>
+      </c>
+      <c r="E216" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>55</v>
+      </c>
+      <c r="I216" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="J216" s="8">
+        <f t="shared" si="15"/>
+        <v>0.37499999999999956</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="3">
+        <v>64</v>
+      </c>
+      <c r="D217" s="3">
+        <v>75</v>
+      </c>
+      <c r="E217" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F217" s="3">
+        <v>55</v>
+      </c>
+      <c r="I217" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J217" s="8">
+        <f t="shared" si="15"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="5">
+        <v>65</v>
+      </c>
+      <c r="D218" s="3">
+        <v>75</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>55</v>
+      </c>
+      <c r="I218" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J218" s="8">
+        <f t="shared" si="15"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Red</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="3">
+        <v>66</v>
+      </c>
+      <c r="D219" s="3">
+        <v>75</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>55</v>
+      </c>
+      <c r="I219" s="8">
+        <f t="shared" ref="I219:I230" si="16">E219*D219/100</f>
+        <v>0</v>
+      </c>
+      <c r="J219" s="8">
+        <f t="shared" si="15"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="str">
+        <f t="shared" ref="A220:A229" si="17">A219</f>
+        <v>Red</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="3">
+        <v>67</v>
+      </c>
+      <c r="D220" s="3">
+        <v>50</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0</v>
+      </c>
+      <c r="F220" s="3">
+        <v>55</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I220" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J220" s="8">
+        <f t="shared" ref="J220:J230" si="18">I220+J219</f>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="5">
+        <v>68</v>
+      </c>
+      <c r="D221" s="3">
+        <v>50</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0</v>
+      </c>
+      <c r="F221" s="3">
+        <v>55</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I221" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J221" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="3">
+        <v>69</v>
+      </c>
+      <c r="D222" s="3">
+        <v>50</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0</v>
+      </c>
+      <c r="F222" s="3">
+        <v>55</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I222" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J222" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" s="3">
+        <v>70</v>
+      </c>
+      <c r="D223" s="3">
+        <v>50</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>55</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I223" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C224" s="5">
+        <v>71</v>
+      </c>
+      <c r="D224" s="3">
+        <v>50</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>55</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I224" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J224" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="3">
+        <v>72</v>
+      </c>
+      <c r="D225" s="3">
+        <v>50</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>55</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I225" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J225" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" s="3">
+        <v>73</v>
+      </c>
+      <c r="D226" s="3">
+        <v>50</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>55</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I226" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J226" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227" s="5">
+        <v>74</v>
+      </c>
+      <c r="D227" s="3">
+        <v>50</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>55</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I227" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" s="3">
+        <v>75</v>
+      </c>
+      <c r="D228" s="3">
+        <v>50</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>55</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I228" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J228" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Red</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C229" s="3">
+        <v>76</v>
+      </c>
+      <c r="D229" s="3">
+        <v>50</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>55</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I229" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J229" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C230" s="5">
+        <v>77</v>
+      </c>
+      <c r="D230" s="3">
+        <v>50</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0</v>
+      </c>
+      <c r="F230" s="3">
+        <v>35</v>
+      </c>
+      <c r="I230" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J230" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/TrainProject/Excel Files/TrackLayout.xlsx
+++ b/TrainProject/Excel Files/TrackLayout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Red Line" sheetId="1" r:id="rId1"/>
@@ -3527,8 +3527,8 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/TrainProject/Excel Files/TrackLayout.xlsx
+++ b/TrainProject/Excel Files/TrackLayout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="91">
   <si>
     <t>Block Number</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>STATION</t>
   </si>
   <si>
     <t>SWITCH</t>
@@ -193,9 +190,6 @@
     <t>STATION; DORMONT</t>
   </si>
   <si>
-    <t>STATION;         MT LEBANON</t>
-  </si>
-  <si>
     <t>STATION; POPLAR</t>
   </si>
   <si>
@@ -278,6 +272,27 @@
   </si>
   <si>
     <t>Head/Head</t>
+  </si>
+  <si>
+    <t>STATION; MT LEBANON</t>
+  </si>
+  <si>
+    <t>STATION; NORTH POLE</t>
+  </si>
+  <si>
+    <t>STATION; STEEL PLAZA; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; FIRST AVE; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; PENN STATION; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; HERRON AVE</t>
+  </si>
+  <si>
+    <t>STATION; SHADYSIDE</t>
   </si>
 </sst>
 </file>
@@ -738,22 +753,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -784,10 +799,10 @@
         <v>0.25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -848,7 +863,7 @@
         <v>1.5</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -880,7 +895,7 @@
         <v>2.5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -941,7 +956,7 @@
         <v>3.75</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -965,7 +980,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
@@ -976,7 +991,7 @@
         <v>4.125</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1029,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
@@ -1040,10 +1055,10 @@
         <v>4.125</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1075,10 +1090,10 @@
         <v>4.125</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1139,7 +1154,7 @@
         <v>3.375</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1171,7 +1186,7 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1224,7 +1239,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
@@ -1235,10 +1250,10 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1262,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
@@ -1273,10 +1288,10 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,7 +1411,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1420,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="0"/>
@@ -1431,7 +1446,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1492,7 +1507,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1516,7 +1531,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="0"/>
@@ -1527,7 +1542,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1551,7 +1566,7 @@
         <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="0"/>
@@ -1583,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="0"/>
@@ -1615,7 +1630,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="0"/>
@@ -1626,7 +1641,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1650,7 +1665,7 @@
         <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="0"/>
@@ -1661,7 +1676,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1685,7 +1700,7 @@
         <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="0"/>
@@ -1717,7 +1732,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="0"/>
@@ -1749,7 +1764,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="0"/>
@@ -1781,7 +1796,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="0"/>
@@ -1792,7 +1807,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1816,7 +1831,7 @@
         <v>70</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="0"/>
@@ -1827,7 +1842,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,7 +1866,7 @@
         <v>70</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="0"/>
@@ -1883,7 +1898,7 @@
         <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="0"/>
@@ -1915,7 +1930,7 @@
         <v>70</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="0"/>
@@ -1947,7 +1962,7 @@
         <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="0"/>
@@ -1979,7 +1994,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="0"/>
@@ -1990,7 +2005,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2014,7 +2029,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="0"/>
@@ -2025,7 +2040,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2049,7 +2064,7 @@
         <v>70</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="0"/>
@@ -2081,7 +2096,7 @@
         <v>70</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="0"/>
@@ -2113,7 +2128,7 @@
         <v>70</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="0"/>
@@ -2145,7 +2160,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="0"/>
@@ -2156,7 +2171,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2180,7 +2195,7 @@
         <v>70</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="0"/>
@@ -2191,7 +2206,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -2215,7 +2230,7 @@
         <v>70</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="0"/>
@@ -2226,7 +2241,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2250,7 +2265,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="0"/>
@@ -2261,7 +2276,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -2285,7 +2300,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="0"/>
@@ -2317,7 +2332,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="0"/>
@@ -2328,7 +2343,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2337,7 +2352,7 @@
         <v>Red</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="3">
         <v>49</v>
@@ -2360,7 +2375,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2369,7 +2384,7 @@
         <v>Red</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="5">
         <v>50</v>
@@ -2398,7 +2413,7 @@
         <v>Red</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="3">
         <v>51</v>
@@ -2427,7 +2442,7 @@
         <v>Red</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="3">
         <v>52</v>
@@ -2442,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="0"/>
@@ -2453,7 +2468,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2462,7 +2477,7 @@
         <v>Red</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="5">
         <v>53</v>
@@ -2485,7 +2500,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,7 +2509,7 @@
         <v>Red</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="3">
         <v>54</v>
@@ -2517,7 +2532,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2526,7 +2541,7 @@
         <v>Red</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="3">
         <v>55</v>
@@ -2549,7 +2564,7 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2558,7 +2573,7 @@
         <v>Red</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" s="5">
         <v>56</v>
@@ -2587,7 +2602,7 @@
         <v>Red</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" s="3">
         <v>57</v>
@@ -2610,7 +2625,7 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2619,7 +2634,7 @@
         <v>Red</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="3">
         <v>58</v>
@@ -2642,7 +2657,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2651,7 +2666,7 @@
         <v>Red</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="5">
         <v>59</v>
@@ -2680,7 +2695,7 @@
         <v>Red</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="3">
         <v>60</v>
@@ -2695,7 +2710,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="0"/>
@@ -2706,7 +2721,7 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2715,7 +2730,7 @@
         <v>Red</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="3">
         <v>61</v>
@@ -2738,7 +2753,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2747,7 +2762,7 @@
         <v>Red</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -2776,7 +2791,7 @@
         <v>Red</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="3">
         <v>63</v>
@@ -2799,7 +2814,7 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2808,7 +2823,7 @@
         <v>Red</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="3">
         <v>64</v>
@@ -2831,7 +2846,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2840,7 +2855,7 @@
         <v>Red</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -2869,7 +2884,7 @@
         <v>Red</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="3">
         <v>66</v>
@@ -2892,10 +2907,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2904,7 +2919,7 @@
         <v>Red</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3">
         <v>67</v>
@@ -2919,7 +2934,7 @@
         <v>55</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="3"/>
@@ -2930,10 +2945,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -2942,7 +2957,7 @@
         <v>Red</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -2957,7 +2972,7 @@
         <v>55</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="3"/>
@@ -2968,7 +2983,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -2977,7 +2992,7 @@
         <v>Red</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3">
         <v>69</v>
@@ -2992,7 +3007,7 @@
         <v>55</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="3"/>
@@ -3009,7 +3024,7 @@
         <v>Red</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="3">
         <v>70</v>
@@ -3024,7 +3039,7 @@
         <v>55</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="3"/>
@@ -3035,7 +3050,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3044,7 +3059,7 @@
         <v>Red</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="5">
         <v>71</v>
@@ -3059,7 +3074,7 @@
         <v>55</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="3"/>
@@ -3070,10 +3085,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3082,7 +3097,7 @@
         <v>Red</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="3">
         <v>72</v>
@@ -3097,7 +3112,7 @@
         <v>55</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="3"/>
@@ -3108,10 +3123,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3120,7 +3135,7 @@
         <v>Red</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3">
         <v>73</v>
@@ -3135,7 +3150,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="3"/>
@@ -3146,7 +3161,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3155,7 +3170,7 @@
         <v>Red</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="5">
         <v>74</v>
@@ -3170,7 +3185,7 @@
         <v>55</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="3"/>
@@ -3187,7 +3202,7 @@
         <v>Red</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="3">
         <v>75</v>
@@ -3202,7 +3217,7 @@
         <v>55</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="3"/>
@@ -3213,7 +3228,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3222,7 +3237,7 @@
         <v>Red</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="3">
         <v>76</v>
@@ -3237,7 +3252,7 @@
         <v>55</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="3"/>
@@ -3248,10 +3263,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3259,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78" s="5">
         <v>77</v>
@@ -3282,10 +3297,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3527,8 +3542,8 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3564,22 +3579,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3610,10 +3625,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3637,7 +3652,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
@@ -3677,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3709,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3770,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3803,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3856,7 +3871,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -3946,7 +3961,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -3957,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3992,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4077,7 +4092,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -4088,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4120,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4173,7 +4188,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -4213,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4245,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4269,7 +4284,7 @@
         <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -4454,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4481,7 +4496,7 @@
         <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
@@ -4492,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4548,7 +4563,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -4588,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4620,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4681,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4705,7 +4720,7 @@
         <v>70</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
@@ -4716,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4740,7 +4755,7 @@
         <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="0"/>
@@ -4772,7 +4787,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
@@ -4804,7 +4819,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
@@ -4836,7 +4851,7 @@
         <v>70</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="0"/>
@@ -4868,7 +4883,7 @@
         <v>70</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="0"/>
@@ -4900,7 +4915,7 @@
         <v>70</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="0"/>
@@ -4932,7 +4947,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="0"/>
@@ -4964,7 +4979,7 @@
         <v>70</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="0"/>
@@ -4996,7 +5011,7 @@
         <v>70</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
@@ -5028,7 +5043,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="0"/>
@@ -5060,7 +5075,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="0"/>
@@ -5092,7 +5107,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="0"/>
@@ -5124,7 +5139,7 @@
         <v>70</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="0"/>
@@ -5156,7 +5171,7 @@
         <v>70</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="0"/>
@@ -5188,7 +5203,7 @@
         <v>70</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="0"/>
@@ -5220,7 +5235,7 @@
         <v>70</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="0"/>
@@ -5252,7 +5267,7 @@
         <v>70</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="0"/>
@@ -5284,7 +5299,7 @@
         <v>70</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="0"/>
@@ -5316,7 +5331,7 @@
         <v>70</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="0"/>
@@ -5348,7 +5363,7 @@
         <v>70</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="0"/>
@@ -5380,7 +5395,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
@@ -5391,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5403,7 +5418,7 @@
         <v>Green</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="3">
         <v>58</v>
@@ -5418,7 +5433,7 @@
         <v>60</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="0"/>
@@ -5429,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5441,7 +5456,7 @@
         <v>Green</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="5">
         <v>59</v>
@@ -5470,7 +5485,7 @@
         <v>Green</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="3">
         <v>60</v>
@@ -5499,7 +5514,7 @@
         <v>Green</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="3">
         <v>61</v>
@@ -5522,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5531,7 +5546,7 @@
         <v>Green</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -5546,7 +5561,7 @@
         <v>60</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
@@ -5557,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5569,7 +5584,7 @@
         <v>Green</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" s="3">
         <v>63</v>
@@ -5592,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5601,7 +5616,7 @@
         <v>Green</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="3">
         <v>64</v>
@@ -5630,7 +5645,7 @@
         <v>Green</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -5645,7 +5660,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
@@ -5662,7 +5677,7 @@
         <v>Green</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="3">
         <v>66</v>
@@ -5691,7 +5706,7 @@
         <v>Green</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" s="3">
         <v>67</v>
@@ -5720,7 +5735,7 @@
         <v>Green</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -5743,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5752,7 +5767,7 @@
         <v>Green</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" s="3">
         <v>69</v>
@@ -5775,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5784,7 +5799,7 @@
         <v>Green</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="3">
         <v>70</v>
@@ -5813,7 +5828,7 @@
         <v>Green</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="5">
         <v>71</v>
@@ -5842,7 +5857,7 @@
         <v>Green</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="3">
         <v>72</v>
@@ -5871,7 +5886,7 @@
         <v>Green</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" s="3">
         <v>73</v>
@@ -5886,7 +5901,7 @@
         <v>60</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="3"/>
@@ -5897,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5906,7 +5921,7 @@
         <v>Green</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="5">
         <v>74</v>
@@ -5929,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5938,7 +5953,7 @@
         <v>Green</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C76" s="3">
         <v>75</v>
@@ -5967,7 +5982,7 @@
         <v>Green</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="3">
         <v>76</v>
@@ -5982,7 +5997,7 @@
         <v>60</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="3"/>
@@ -5993,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6005,7 +6020,7 @@
         <v>Green</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" s="3">
         <v>77</v>
@@ -6020,7 +6035,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="6">E78*D78/100</f>
@@ -6031,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6043,7 +6058,7 @@
         <v>Green</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" s="5">
         <v>78</v>
@@ -6072,7 +6087,7 @@
         <v>Green</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="3">
         <v>79</v>
@@ -6101,7 +6116,7 @@
         <v>Green</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="3">
         <v>80</v>
@@ -6130,7 +6145,7 @@
         <v>Green</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="3">
         <v>81</v>
@@ -6159,7 +6174,7 @@
         <v>Green</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="5">
         <v>82</v>
@@ -6188,7 +6203,7 @@
         <v>Green</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="3">
         <v>83</v>
@@ -6217,7 +6232,7 @@
         <v>Green</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" s="3">
         <v>84</v>
@@ -6246,7 +6261,7 @@
         <v>Green</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="3">
         <v>85</v>
@@ -6269,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6281,7 +6296,7 @@
         <v>Green</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="5">
         <v>86</v>
@@ -6296,7 +6311,7 @@
         <v>55</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="6"/>
@@ -6307,10 +6322,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6319,7 +6334,7 @@
         <v>Green</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" s="3">
         <v>87</v>
@@ -6348,7 +6363,7 @@
         <v>Green</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" s="3">
         <v>88</v>
@@ -6363,7 +6378,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="6"/>
@@ -6374,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6383,7 +6398,7 @@
         <v>Green</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="3">
         <v>89</v>
@@ -6406,7 +6421,7 @@
         <v>-0.375</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6415,7 +6430,7 @@
         <v>Green</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" s="5">
         <v>90</v>
@@ -6444,7 +6459,7 @@
         <v>Green</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="3">
         <v>91</v>
@@ -6473,7 +6488,7 @@
         <v>Green</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="3">
         <v>92</v>
@@ -6502,7 +6517,7 @@
         <v>Green</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="3">
         <v>93</v>
@@ -6531,7 +6546,7 @@
         <v>Green</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" s="5">
         <v>94</v>
@@ -6560,7 +6575,7 @@
         <v>Green</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="3">
         <v>95</v>
@@ -6589,7 +6604,7 @@
         <v>Green</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="3">
         <v>96</v>
@@ -6604,7 +6619,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="6"/>
@@ -6621,7 +6636,7 @@
         <v>Green</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" s="3">
         <v>97</v>
@@ -6644,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6653,7 +6668,7 @@
         <v>Green</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99" s="5">
         <v>98</v>
@@ -6676,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6685,7 +6700,7 @@
         <v>Green</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100" s="3">
         <v>99</v>
@@ -6714,7 +6729,7 @@
         <v>Green</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101" s="3">
         <v>100</v>
@@ -6737,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6749,7 +6764,7 @@
         <v>Green</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102" s="3">
         <v>101</v>
@@ -6772,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6784,7 +6799,7 @@
         <v>Green</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" s="5">
         <v>102</v>
@@ -6807,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6816,7 +6831,7 @@
         <v>Green</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104" s="3">
         <v>103</v>
@@ -6845,7 +6860,7 @@
         <v>Green</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105" s="3">
         <v>104</v>
@@ -6868,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6877,7 +6892,7 @@
         <v>Green</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106" s="3">
         <v>105</v>
@@ -6904,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6913,7 +6928,7 @@
         <v>Green</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107" s="5">
         <v>106</v>
@@ -6942,7 +6957,7 @@
         <v>Green</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" s="3">
         <v>107</v>
@@ -6971,7 +6986,7 @@
         <v>Green</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109" s="3">
         <v>108</v>
@@ -7000,7 +7015,7 @@
         <v>Green</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" s="3">
         <v>109</v>
@@ -7023,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -7032,7 +7047,7 @@
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -7055,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -7064,7 +7079,7 @@
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -7093,7 +7108,7 @@
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -7122,7 +7137,7 @@
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -7151,7 +7166,7 @@
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -7184,7 +7199,7 @@
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -7213,7 +7228,7 @@
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -7236,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -7245,7 +7260,7 @@
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -7268,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7277,7 +7292,7 @@
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -7306,7 +7321,7 @@
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -7335,7 +7350,7 @@
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -7364,7 +7379,7 @@
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -7387,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7396,7 +7411,7 @@
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -7411,7 +7426,7 @@
         <v>70</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I123" s="3">
         <f t="shared" si="8"/>
@@ -7422,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -7431,7 +7446,7 @@
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -7464,7 +7479,7 @@
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -7479,7 +7494,7 @@
         <v>70</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I125" s="3">
         <f t="shared" si="8"/>
@@ -7496,7 +7511,7 @@
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -7511,7 +7526,7 @@
         <v>70</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="8"/>
@@ -7528,7 +7543,7 @@
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -7543,7 +7558,7 @@
         <v>70</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I127" s="3">
         <f t="shared" si="8"/>
@@ -7560,7 +7575,7 @@
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -7575,7 +7590,7 @@
         <v>70</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I128" s="3">
         <f t="shared" si="8"/>
@@ -7592,7 +7607,7 @@
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -7607,7 +7622,7 @@
         <v>70</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="8"/>
@@ -7624,7 +7639,7 @@
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -7639,7 +7654,7 @@
         <v>70</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I130" s="3">
         <f t="shared" si="8"/>
@@ -7656,7 +7671,7 @@
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -7671,7 +7686,7 @@
         <v>70</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I131" s="3">
         <f t="shared" si="8"/>
@@ -7688,7 +7703,7 @@
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -7703,7 +7718,7 @@
         <v>70</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I132" s="3">
         <f t="shared" si="8"/>
@@ -7720,7 +7735,7 @@
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -7753,7 +7768,7 @@
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -7768,7 +7783,7 @@
         <v>70</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I134" s="3">
         <f t="shared" si="8"/>
@@ -7785,7 +7800,7 @@
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -7800,7 +7815,7 @@
         <v>70</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I135" s="3">
         <f t="shared" si="8"/>
@@ -7817,7 +7832,7 @@
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -7832,7 +7847,7 @@
         <v>70</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I136" s="3">
         <f t="shared" si="8"/>
@@ -7849,7 +7864,7 @@
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -7864,7 +7879,7 @@
         <v>70</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I137" s="3">
         <f t="shared" si="8"/>
@@ -7881,7 +7896,7 @@
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -7896,7 +7911,7 @@
         <v>70</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I138" s="3">
         <f t="shared" si="8"/>
@@ -7913,7 +7928,7 @@
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -7928,7 +7943,7 @@
         <v>70</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I139" s="3">
         <f t="shared" si="8"/>
@@ -7945,7 +7960,7 @@
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -7960,7 +7975,7 @@
         <v>70</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I140" s="3">
         <f t="shared" si="8"/>
@@ -7977,7 +7992,7 @@
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -7992,7 +8007,7 @@
         <v>70</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I141" s="3">
         <f t="shared" si="8"/>
@@ -8009,7 +8024,7 @@
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -8042,7 +8057,7 @@
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -8057,7 +8072,7 @@
         <v>70</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I143" s="3">
         <f t="shared" si="8"/>
@@ -8074,7 +8089,7 @@
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -8089,7 +8104,7 @@
         <v>70</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I144" s="3">
         <f t="shared" si="8"/>
@@ -8100,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -8109,7 +8124,7 @@
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -8132,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8141,7 +8156,7 @@
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -8170,7 +8185,7 @@
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -8193,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8202,7 +8217,7 @@
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -8225,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8234,7 +8249,7 @@
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -8263,7 +8278,7 @@
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -8286,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -8295,7 +8310,7 @@
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -8318,10 +8333,10 @@
         <v>0</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -8330,7 +8345,7 @@
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -8353,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8365,7 +8380,7 @@
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -8388,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8422,10 +8437,10 @@
         <v>0.25</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8486,7 +8501,7 @@
         <v>1.5</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8518,7 +8533,7 @@
         <v>2.5</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8579,7 +8594,7 @@
         <v>3.75</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8603,7 +8618,7 @@
         <v>40</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="I160" s="8">
         <f t="shared" si="13"/>
@@ -8614,7 +8629,7 @@
         <v>4.125</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8667,7 +8682,7 @@
         <v>40</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I162" s="8">
         <f t="shared" si="13"/>
@@ -8678,10 +8693,10 @@
         <v>4.125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8713,10 +8728,10 @@
         <v>4.125</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8777,7 +8792,7 @@
         <v>3.375</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8809,7 +8824,7 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8862,7 +8877,7 @@
         <v>40</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I168" s="8">
         <f t="shared" si="13"/>
@@ -8873,10 +8888,10 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8900,7 +8915,7 @@
         <v>40</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I169" s="8">
         <f t="shared" si="13"/>
@@ -8911,10 +8926,10 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -9034,7 +9049,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9058,7 +9073,7 @@
         <v>55</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I174" s="8">
         <f t="shared" si="13"/>
@@ -9069,7 +9084,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9130,7 +9145,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9154,7 +9169,7 @@
         <v>70</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I177" s="8">
         <f t="shared" si="13"/>
@@ -9165,7 +9180,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -9189,7 +9204,7 @@
         <v>70</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I178" s="8">
         <f t="shared" si="13"/>
@@ -9221,7 +9236,7 @@
         <v>70</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I179" s="8">
         <f t="shared" si="13"/>
@@ -9253,7 +9268,7 @@
         <v>70</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I180" s="8">
         <f t="shared" si="13"/>
@@ -9264,7 +9279,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -9288,7 +9303,7 @@
         <v>70</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I181" s="8">
         <f t="shared" si="13"/>
@@ -9299,7 +9314,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9323,7 +9338,7 @@
         <v>70</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I182" s="8">
         <f t="shared" si="13"/>
@@ -9355,7 +9370,7 @@
         <v>70</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I183" s="8">
         <f t="shared" si="13"/>
@@ -9387,7 +9402,7 @@
         <v>70</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I184" s="8">
         <f t="shared" si="13"/>
@@ -9419,7 +9434,7 @@
         <v>70</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I185" s="8">
         <f t="shared" si="13"/>
@@ -9430,7 +9445,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -9454,7 +9469,7 @@
         <v>70</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I186" s="8">
         <f t="shared" si="13"/>
@@ -9465,7 +9480,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -9489,7 +9504,7 @@
         <v>70</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I187" s="8">
         <f t="shared" si="13"/>
@@ -9521,7 +9536,7 @@
         <v>70</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I188" s="8">
         <f t="shared" si="13"/>
@@ -9553,7 +9568,7 @@
         <v>70</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I189" s="8">
         <f t="shared" si="13"/>
@@ -9585,7 +9600,7 @@
         <v>70</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I190" s="8">
         <f t="shared" si="13"/>
@@ -9617,7 +9632,7 @@
         <v>70</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I191" s="8">
         <f t="shared" si="13"/>
@@ -9628,7 +9643,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -9652,7 +9667,7 @@
         <v>70</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I192" s="8">
         <f t="shared" si="13"/>
@@ -9663,7 +9678,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -9687,7 +9702,7 @@
         <v>70</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I193" s="8">
         <f t="shared" si="13"/>
@@ -9719,7 +9734,7 @@
         <v>70</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I194" s="8">
         <f t="shared" si="13"/>
@@ -9751,7 +9766,7 @@
         <v>70</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I195" s="8">
         <f t="shared" si="13"/>
@@ -9783,7 +9798,7 @@
         <v>70</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I196" s="8">
         <f t="shared" si="13"/>
@@ -9794,7 +9809,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -9818,7 +9833,7 @@
         <v>70</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I197" s="8">
         <f t="shared" si="13"/>
@@ -9829,7 +9844,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -9853,7 +9868,7 @@
         <v>70</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I198" s="8">
         <f t="shared" si="13"/>
@@ -9864,7 +9879,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9888,7 +9903,7 @@
         <v>70</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I199" s="8">
         <f t="shared" si="13"/>
@@ -9899,7 +9914,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -9923,7 +9938,7 @@
         <v>70</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I200" s="8">
         <f t="shared" si="13"/>
@@ -9955,7 +9970,7 @@
         <v>70</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I201" s="8">
         <f t="shared" si="13"/>
@@ -9966,7 +9981,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -9975,7 +9990,7 @@
         <v>Red</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C202" s="3">
         <v>49</v>
@@ -9998,7 +10013,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -10007,7 +10022,7 @@
         <v>Red</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C203" s="5">
         <v>50</v>
@@ -10036,7 +10051,7 @@
         <v>Red</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C204" s="3">
         <v>51</v>
@@ -10065,7 +10080,7 @@
         <v>Red</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C205" s="3">
         <v>52</v>
@@ -10080,7 +10095,7 @@
         <v>55</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I205" s="8">
         <f t="shared" si="13"/>
@@ -10091,7 +10106,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -10100,7 +10115,7 @@
         <v>Red</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C206" s="5">
         <v>53</v>
@@ -10123,7 +10138,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10132,7 +10147,7 @@
         <v>Red</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C207" s="3">
         <v>54</v>
@@ -10155,7 +10170,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -10164,7 +10179,7 @@
         <v>Red</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C208" s="3">
         <v>55</v>
@@ -10187,7 +10202,7 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -10196,7 +10211,7 @@
         <v>Red</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C209" s="5">
         <v>56</v>
@@ -10225,7 +10240,7 @@
         <v>Red</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C210" s="3">
         <v>57</v>
@@ -10248,7 +10263,7 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -10257,7 +10272,7 @@
         <v>Red</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C211" s="3">
         <v>58</v>
@@ -10280,7 +10295,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -10289,7 +10304,7 @@
         <v>Red</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C212" s="5">
         <v>59</v>
@@ -10318,7 +10333,7 @@
         <v>Red</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C213" s="3">
         <v>60</v>
@@ -10333,7 +10348,7 @@
         <v>55</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I213" s="8">
         <f t="shared" si="13"/>
@@ -10344,7 +10359,7 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -10353,7 +10368,7 @@
         <v>Red</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C214" s="3">
         <v>61</v>
@@ -10376,7 +10391,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10385,7 +10400,7 @@
         <v>Red</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C215" s="5">
         <v>62</v>
@@ -10414,7 +10429,7 @@
         <v>Red</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C216" s="3">
         <v>63</v>
@@ -10437,7 +10452,7 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10446,7 +10461,7 @@
         <v>Red</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C217" s="3">
         <v>64</v>
@@ -10469,7 +10484,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10478,7 +10493,7 @@
         <v>Red</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C218" s="5">
         <v>65</v>
@@ -10507,7 +10522,7 @@
         <v>Red</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C219" s="3">
         <v>66</v>
@@ -10530,10 +10545,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10542,7 +10557,7 @@
         <v>Red</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C220" s="3">
         <v>67</v>
@@ -10557,7 +10572,7 @@
         <v>55</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I220" s="8">
         <f t="shared" si="16"/>
@@ -10568,10 +10583,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -10580,7 +10595,7 @@
         <v>Red</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C221" s="5">
         <v>68</v>
@@ -10595,7 +10610,7 @@
         <v>55</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I221" s="8">
         <f t="shared" si="16"/>
@@ -10606,7 +10621,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10615,7 +10630,7 @@
         <v>Red</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C222" s="3">
         <v>69</v>
@@ -10630,7 +10645,7 @@
         <v>55</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I222" s="8">
         <f t="shared" si="16"/>
@@ -10647,7 +10662,7 @@
         <v>Red</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C223" s="3">
         <v>70</v>
@@ -10662,7 +10677,7 @@
         <v>55</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I223" s="8">
         <f t="shared" si="16"/>
@@ -10673,7 +10688,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -10682,7 +10697,7 @@
         <v>Red</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C224" s="5">
         <v>71</v>
@@ -10697,7 +10712,7 @@
         <v>55</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I224" s="8">
         <f t="shared" si="16"/>
@@ -10708,10 +10723,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10720,7 +10735,7 @@
         <v>Red</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C225" s="3">
         <v>72</v>
@@ -10735,7 +10750,7 @@
         <v>55</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I225" s="8">
         <f t="shared" si="16"/>
@@ -10746,10 +10761,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10758,7 +10773,7 @@
         <v>Red</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C226" s="3">
         <v>73</v>
@@ -10773,7 +10788,7 @@
         <v>55</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I226" s="8">
         <f t="shared" si="16"/>
@@ -10784,7 +10799,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -10793,7 +10808,7 @@
         <v>Red</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C227" s="5">
         <v>74</v>
@@ -10808,7 +10823,7 @@
         <v>55</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I227" s="8">
         <f t="shared" si="16"/>
@@ -10825,7 +10840,7 @@
         <v>Red</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C228" s="3">
         <v>75</v>
@@ -10840,7 +10855,7 @@
         <v>55</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I228" s="8">
         <f t="shared" si="16"/>
@@ -10851,7 +10866,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10860,7 +10875,7 @@
         <v>Red</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C229" s="3">
         <v>76</v>
@@ -10875,7 +10890,7 @@
         <v>55</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I229" s="8">
         <f t="shared" si="16"/>
@@ -10886,10 +10901,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -10897,7 +10912,7 @@
         <v>10</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C230" s="5">
         <v>77</v>
@@ -10920,10 +10935,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/TrainProject/Excel Files/TrackLayout.xlsx
+++ b/TrainProject/Excel Files/TrackLayout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="91">
   <si>
     <t>Block Number</t>
   </si>
@@ -289,10 +289,10 @@
     <t>STATION; PENN STATION; UNDERGROUND</t>
   </si>
   <si>
-    <t>STATION; HERRON AVE</t>
+    <t>STATION; SHADYSIDE</t>
   </si>
   <si>
-    <t>STATION; SHADYSIDE</t>
+    <t>SWITCH; STATION; HERRON AVE</t>
   </si>
 </sst>
 </file>
@@ -3542,8 +3542,8 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8618,7 +8618,7 @@
         <v>40</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I160" s="8">
         <f t="shared" si="13"/>
@@ -8876,9 +8876,6 @@
       <c r="F168" s="3">
         <v>40</v>
       </c>
-      <c r="G168" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I168" s="8">
         <f t="shared" si="13"/>
         <v>-0.6</v>
@@ -8894,7 +8891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8915,7 +8912,7 @@
         <v>40</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I169" s="8">
         <f t="shared" si="13"/>
